--- a/biology/Zoologie/Arestorides/Arestorides.xlsx
+++ b/biology/Zoologie/Arestorides/Arestorides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Porcelaine argus (Arestorides argus) est une espèce de mollusque gastéropode de la famille des Cypraeidae. C'est un coquillage assez rare.
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition : de l'Est de l'Afrique aux îles Fidji.
 Taille : 5 à 11 cm.
-C'est un coquillage parsemé de nombreux "yeux" comme le géant aux cents yeux de la mythologie grec Argos (Argus en latin) d'où son nom[1].
+C'est un coquillage parsemé de nombreux "yeux" comme le géant aux cents yeux de la mythologie grec Argos (Argus en latin) d'où son nom.
 			In situ à la Réunion.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (29 octobre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (29 octobre 2014) :
 sous-espèce Arestorides argus argus (Linnaeus, 1758)
 sous-espèce Arestorides argus contracasta Lorenz, 2012
 sous-espèce Arestorides argus contrastriata (Perry, 1811)</t>
@@ -578,7 +594,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce coquillage figure sur une émission de la poste aérienne de la Nouvelle-Calédonie de 1970 (valeur faciale : 21 F) sous le libellé « Porcelaine argus (Cypraea argus L.) »
 </t>
